--- a/DGRA/DGRA_V1/SampleFormat/Wind_DGR_Automation.xlsx
+++ b/DGRA/DGRA_V1/SampleFormat/Wind_DGR_Automation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Uploading_File_Generation" sheetId="3" r:id="rId1"/>
@@ -470,9 +470,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="h:mm;@"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -686,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,30 +773,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,23 +1079,23 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="42" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="41" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="34" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1110,7 +1107,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1121,8 +1118,8 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="41">
-        <v>44841</v>
+      <c r="A2" s="40">
+        <v>44905</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>128</v>
@@ -1144,8 +1141,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="41">
-        <v>44841</v>
+      <c r="A3" s="40">
+        <v>44905</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>129</v>
@@ -1165,13 +1162,11 @@
       <c r="G3" s="26">
         <v>23.8</v>
       </c>
-      <c r="K3" s="36">
-        <v>0</v>
-      </c>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="41">
-        <v>44841</v>
+      <c r="A4" s="40">
+        <v>44905</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>130</v>
@@ -1193,8 +1188,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="41">
-        <v>44841</v>
+      <c r="A5" s="40">
+        <v>44905</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>131</v>
@@ -1216,8 +1211,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="41">
-        <v>44841</v>
+      <c r="A6" s="40">
+        <v>44905</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>132</v>
@@ -1239,8 +1234,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="41">
-        <v>44841</v>
+      <c r="A7" s="40">
+        <v>44905</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>133</v>
@@ -1262,8 +1257,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="41">
-        <v>44841</v>
+      <c r="A8" s="40">
+        <v>44905</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>134</v>
@@ -1285,8 +1280,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="41">
-        <v>44841</v>
+      <c r="A9" s="40">
+        <v>44905</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>135</v>
@@ -1318,8 +1313,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1327,7 +1322,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="79.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" style="32" customWidth="1"/>
   </cols>
@@ -1342,10 +1337,10 @@
       <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="24" t="s">
@@ -1356,8 +1351,8 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33">
-        <v>44841</v>
+      <c r="A2" s="40">
+        <v>44905</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>130</v>
@@ -1365,10 +1360,10 @@
       <c r="C2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0.52777777777777779</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="37">
         <v>0.53611111111111109</v>
       </c>
       <c r="F2" s="29" t="s">
@@ -1379,8 +1374,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.25">
-      <c r="A3" s="33">
-        <v>44841</v>
+      <c r="A3" s="40">
+        <v>44905</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>131</v>
@@ -1388,10 +1383,10 @@
       <c r="C3" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>0.5</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>0.5083333333333333</v>
       </c>
       <c r="F3" s="29" t="s">
@@ -1402,8 +1397,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5">
-      <c r="A4" s="33">
-        <v>44841</v>
+      <c r="A4" s="40">
+        <v>44905</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>128</v>
@@ -1411,10 +1406,10 @@
       <c r="C4" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0.125</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F4" s="29" t="s">
@@ -1425,8 +1420,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="33">
-        <v>44841</v>
+      <c r="A5" s="40">
+        <v>44905</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>129</v>
@@ -1434,10 +1429,10 @@
       <c r="C5" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>0.125</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F5" s="29" t="s">
@@ -1448,8 +1443,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="38.25">
-      <c r="A6" s="33">
-        <v>44841</v>
+      <c r="A6" s="40">
+        <v>44905</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>130</v>
@@ -1457,10 +1452,10 @@
       <c r="C6" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>0.125</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F6" s="29" t="s">
@@ -1471,8 +1466,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="25.5">
-      <c r="A7" s="33">
-        <v>44841</v>
+      <c r="A7" s="40">
+        <v>44905</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>131</v>
@@ -1480,10 +1475,10 @@
       <c r="C7" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0.125</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -1494,8 +1489,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="33">
-        <v>44841</v>
+      <c r="A8" s="40">
+        <v>44905</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>128</v>
@@ -1503,10 +1498,10 @@
       <c r="C8" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>0.125</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F8" s="29" t="s">
@@ -1517,8 +1512,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="38.25">
-      <c r="A9" s="33">
-        <v>44841</v>
+      <c r="A9" s="40">
+        <v>44905</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>129</v>
@@ -1526,10 +1521,10 @@
       <c r="C9" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>0.125</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F9" s="29" t="s">
@@ -1540,8 +1535,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="25.5">
-      <c r="A10" s="33">
-        <v>44841</v>
+      <c r="A10" s="40">
+        <v>44905</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>130</v>
@@ -1549,10 +1544,10 @@
       <c r="C10" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0.125</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F10" s="29" t="s">
@@ -1563,8 +1558,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="33">
-        <v>44841</v>
+      <c r="A11" s="40">
+        <v>44905</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>131</v>
@@ -1572,10 +1567,10 @@
       <c r="C11" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0.125</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F11" s="29" t="s">
@@ -1586,8 +1581,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="38.25">
-      <c r="A12" s="33">
-        <v>44841</v>
+      <c r="A12" s="40">
+        <v>44905</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>128</v>
@@ -1595,10 +1590,10 @@
       <c r="C12" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0.125</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F12" s="29" t="s">
@@ -1609,8 +1604,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5">
-      <c r="A13" s="33">
-        <v>44841</v>
+      <c r="A13" s="40">
+        <v>44905</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>129</v>
@@ -1618,10 +1613,10 @@
       <c r="C13" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0.125</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F13" s="29" t="s">
@@ -1632,8 +1627,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="33">
-        <v>44841</v>
+      <c r="A14" s="40">
+        <v>44905</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>130</v>
@@ -1641,10 +1636,10 @@
       <c r="C14" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>0.125</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F14" s="29" t="s">
@@ -1655,8 +1650,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="38.25">
-      <c r="A15" s="33">
-        <v>44841</v>
+      <c r="A15" s="40">
+        <v>44905</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>131</v>
@@ -1664,10 +1659,10 @@
       <c r="C15" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>0.125</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F15" s="29" t="s">
@@ -1678,8 +1673,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5">
-      <c r="A16" s="33">
-        <v>44841</v>
+      <c r="A16" s="40">
+        <v>44905</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>128</v>
@@ -1687,10 +1682,10 @@
       <c r="C16" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>0.125</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F16" s="29" t="s">
@@ -1701,8 +1696,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="33">
-        <v>44841</v>
+      <c r="A17" s="40">
+        <v>44905</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>129</v>
@@ -1710,10 +1705,10 @@
       <c r="C17" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>0.125</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F17" s="29" t="s">
@@ -1724,8 +1719,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="38.25">
-      <c r="A18" s="33">
-        <v>44841</v>
+      <c r="A18" s="40">
+        <v>44905</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>130</v>
@@ -1733,10 +1728,10 @@
       <c r="C18" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>0.125</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F18" s="29" t="s">
@@ -1747,8 +1742,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5">
-      <c r="A19" s="33">
-        <v>44841</v>
+      <c r="A19" s="40">
+        <v>44905</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>131</v>
@@ -1756,10 +1751,10 @@
       <c r="C19" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>0.125</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F19" s="29" t="s">
@@ -1770,8 +1765,8 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="33">
-        <v>44841</v>
+      <c r="A20" s="40">
+        <v>44905</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>128</v>
@@ -1779,10 +1774,10 @@
       <c r="C20" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>0.125</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F20" s="29" t="s">
@@ -1793,8 +1788,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="38.25">
-      <c r="A21" s="33">
-        <v>44841</v>
+      <c r="A21" s="40">
+        <v>44905</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>129</v>
@@ -1802,10 +1797,10 @@
       <c r="C21" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>0.125</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F21" s="29" t="s">
@@ -1816,8 +1811,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.5">
-      <c r="A22" s="33">
-        <v>44841</v>
+      <c r="A22" s="40">
+        <v>44905</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>129</v>
@@ -1825,10 +1820,10 @@
       <c r="C22" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>0.125</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F22" s="29" t="s">

--- a/DGRA/DGRA_V1/SampleFormat/Wind_DGR_Automation.xlsx
+++ b/DGRA/DGRA_V1/SampleFormat/Wind_DGR_Automation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Uploading_File_Generation" sheetId="3" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="Daily_Bd_Data" sheetId="9" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Uploading_File_Breakdown!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Uploading_File_Generation!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Uploading_File_Breakdown!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Uploading_File_Generation!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="133">
   <si>
     <t>Date</t>
   </si>
@@ -419,62 +419,31 @@
     <t>External grid breakdown from GSS side.</t>
   </si>
   <si>
-    <t>M24</t>
-  </si>
-  <si>
-    <t>M32</t>
-  </si>
-  <si>
-    <t>VL333</t>
-  </si>
-  <si>
-    <t>VL20</t>
-  </si>
-  <si>
-    <t>KDE5</t>
-  </si>
-  <si>
-    <t>KDE50</t>
-  </si>
-  <si>
-    <t>KDE72</t>
-  </si>
-  <si>
-    <t>KDE73</t>
-  </si>
-  <si>
-    <t>IGBD</t>
-  </si>
-  <si>
-    <t>EGBD</t>
-  </si>
-  <si>
-    <t>INTL_Line Breakdown due to E/F</t>
-  </si>
-  <si>
-    <t>EHV system (substation / Upstream Line) failure</t>
-  </si>
-  <si>
-    <t>Switching operation work was done</t>
-  </si>
-  <si>
-    <t>feeder was manually closed</t>
-  </si>
-  <si>
-    <t>Earth Fault tripped at ss,So fault current checked and manually charged by ss.</t>
+    <t>KBS06</t>
+  </si>
+  <si>
+    <t>KBS70</t>
+  </si>
+  <si>
+    <t>USMH</t>
+  </si>
+  <si>
+    <t>Grid voltage is not OK. (11012)</t>
+  </si>
+  <si>
+    <t>Error occurred due to grid fluctuation so After grid voltage normalization then PLC auto reset and start wtg.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +510,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -686,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -748,9 +732,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,13 +744,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -777,23 +751,36 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,25 +1064,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="41" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="30" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1107,7 +1094,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1117,188 +1104,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="33">
+        <v>44920</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="26">
-        <v>9.3329000000000004</v>
-      </c>
-      <c r="D2" s="27">
-        <v>32106</v>
-      </c>
-      <c r="E2" s="26">
-        <v>23.4</v>
-      </c>
-      <c r="F2" s="26">
-        <v>0.40000000000000213</v>
-      </c>
-      <c r="G2" s="26">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="26">
-        <v>9.4353999999999996</v>
-      </c>
-      <c r="D3" s="27">
-        <v>32861</v>
-      </c>
-      <c r="E3" s="26">
-        <v>23.2</v>
-      </c>
-      <c r="F3" s="26">
-        <v>0.60000000000000142</v>
-      </c>
-      <c r="G3" s="26">
-        <v>23.8</v>
-      </c>
-      <c r="K3" s="35"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="26">
-        <v>7.2343000000000002</v>
-      </c>
-      <c r="D4" s="27">
-        <v>18281</v>
-      </c>
-      <c r="E4" s="26">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F4" s="26">
-        <v>5.4000000000000021</v>
-      </c>
-      <c r="G4" s="26">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="26">
-        <v>7.1433999999999997</v>
-      </c>
-      <c r="D5" s="27">
-        <v>18739</v>
-      </c>
-      <c r="E5" s="26">
-        <v>19</v>
-      </c>
-      <c r="F5" s="26">
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="G5" s="26">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="26">
-        <v>7.8688000000000002</v>
-      </c>
-      <c r="D6" s="27">
-        <v>22638</v>
-      </c>
-      <c r="E6" s="26">
-        <v>23.3</v>
-      </c>
-      <c r="F6" s="26">
-        <v>0.69999999999999929</v>
-      </c>
-      <c r="G6" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="26">
-        <v>7.4264000000000001</v>
-      </c>
-      <c r="D7" s="27">
-        <v>19424</v>
-      </c>
-      <c r="E7" s="26">
-        <v>23</v>
-      </c>
-      <c r="F7" s="26">
-        <v>1</v>
-      </c>
-      <c r="G7" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="26">
-        <v>7.8924000000000003</v>
-      </c>
-      <c r="D8" s="27">
-        <v>22638</v>
-      </c>
-      <c r="E8" s="26">
-        <v>23.1</v>
-      </c>
-      <c r="F8" s="26">
-        <v>0.89999999999999858</v>
-      </c>
-      <c r="G8" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="26">
-        <v>7.7354000000000003</v>
-      </c>
-      <c r="D9" s="27">
-        <v>20714</v>
-      </c>
-      <c r="E9" s="26">
-        <v>22.6</v>
-      </c>
-      <c r="F9" s="26">
-        <v>1.3999999999999986</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="C2" s="25">
+        <v>5.7713217470380993</v>
+      </c>
+      <c r="D2" s="26">
+        <v>7456.8471310697496</v>
+      </c>
+      <c r="E2" s="25">
+        <v>20.666666666666668</v>
+      </c>
+      <c r="F2" s="25">
+        <v>3.3333333333333321</v>
+      </c>
+      <c r="G2" s="25">
         <v>24</v>
       </c>
     </row>
@@ -1311,534 +1136,69 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="33">
+        <v>44920</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="37">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="E2" s="37">
-        <v>0.53611111111111109</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="38.25">
-      <c r="A3" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="D2" s="35">
+        <v>0.28125</v>
+      </c>
+      <c r="E2" s="35">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="37">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5">
-      <c r="A4" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E4" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E5" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="38.25">
-      <c r="A6" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E6" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5">
-      <c r="A7" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E7" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E8" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="38.25">
-      <c r="A9" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E9" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="25.5">
-      <c r="A10" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E10" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E11" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="38.25">
-      <c r="A12" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E12" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="25.5">
-      <c r="A13" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E13" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E14" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="38.25">
-      <c r="A15" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E15" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5">
-      <c r="A16" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E16" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="38.25">
-      <c r="A18" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E18" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="25.5">
-      <c r="A19" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E19" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E20" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="38.25">
-      <c r="A21" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E21" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.5">
-      <c r="A22" s="40">
-        <v>44905</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="E22" s="37">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>140</v>
+      <c r="G2" s="36" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22">
-      <formula1>$O$1:$O$9</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7962,6 +7322,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100236C6D50B6ADF64D993155BEB7C21866" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bfacf1514cb3980081d9d69f2f5d7ef5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="28c94312-c3d4-4cb0-89ce-fcd725a1e252" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfe9adb607864dba4842e6b72e24525b" ns2:_="">
     <xsd:import namespace="28c94312-c3d4-4cb0-89ce-fcd725a1e252"/>
@@ -8093,22 +7462,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F88D9BB-EA3C-4672-81BD-9AA78090B29C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B32C69-EE63-464C-B59C-6D76A021FC5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8126,19 +7494,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9995410B-7E53-4CE6-AEBB-B66981DE68B9}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F88D9BB-EA3C-4672-81BD-9AA78090B29C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="28c94312-c3d4-4cb0-89ce-fcd725a1e252"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>